--- a/excel_path/sharepoint_220710.xlsx
+++ b/excel_path/sharepoint_220710.xlsx
@@ -1,20 +1,374 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\Friday\excel_path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A823160-BFA4-427F-B9BD-56C0BF8FB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+  <si>
+    <t>col_X</t>
+  </si>
+  <si>
+    <t>col_Y</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>col_A</t>
+  </si>
+  <si>
+    <t>col_B</t>
+  </si>
+  <si>
+    <t>col_C</t>
+  </si>
+  <si>
+    <t>col_D</t>
+  </si>
+  <si>
+    <t>col_E</t>
+  </si>
+  <si>
+    <t>col_F</t>
+  </si>
+  <si>
+    <t>col_G</t>
+  </si>
+  <si>
+    <t>col_H</t>
+  </si>
+  <si>
+    <t>col_I</t>
+  </si>
+  <si>
+    <t>col_J</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,6 +405,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,383 +737,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="D1" t="str">
-        <v>X</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" t="str">
-        <v>Offshore</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2022-02-14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>A</v>
-      </c>
-      <c r="B5" t="str">
-        <v>B</v>
-      </c>
-      <c r="C5" t="str">
-        <v>C</v>
-      </c>
-      <c r="D5" t="str">
-        <v>D</v>
-      </c>
-      <c r="E5" t="str">
-        <v>E</v>
-      </c>
-      <c r="F5" t="str">
-        <v>F</v>
-      </c>
-      <c r="G5" t="str">
-        <v>G</v>
-      </c>
-      <c r="H5" t="str">
-        <v>H</v>
-      </c>
-      <c r="I5" t="str">
-        <v>I</v>
-      </c>
-      <c r="J5" t="str">
-        <v>J</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="str">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="str">
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="str">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="str">
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="str">
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="str">
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="str">
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2</v>
-      </c>
-      <c r="B7" t="str">
-        <v>12</v>
-      </c>
-      <c r="C7" t="str">
-        <v>22</v>
-      </c>
-      <c r="D7" t="str">
-        <v>32</v>
-      </c>
-      <c r="E7" t="str">
-        <v>42</v>
-      </c>
-      <c r="F7" t="str">
-        <v>52</v>
-      </c>
-      <c r="G7" t="str">
-        <v>62</v>
-      </c>
-      <c r="H7" t="str">
-        <v>72</v>
-      </c>
-      <c r="I7" t="str">
-        <v>82</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="I13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>3</v>
-      </c>
-      <c r="B8" t="str">
-        <v>13</v>
-      </c>
-      <c r="C8" t="str">
-        <v>23</v>
-      </c>
-      <c r="D8" t="str">
-        <v>33</v>
-      </c>
-      <c r="E8" t="str">
-        <v>43</v>
-      </c>
-      <c r="F8" t="str">
-        <v>53</v>
-      </c>
-      <c r="G8" t="str">
-        <v>63</v>
-      </c>
-      <c r="H8" t="str">
-        <v>73</v>
-      </c>
-      <c r="I8" t="str">
-        <v>83</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="J13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>4</v>
-      </c>
-      <c r="B9" t="str">
-        <v>14</v>
-      </c>
-      <c r="C9" t="str">
-        <v>24</v>
-      </c>
-      <c r="D9" t="str">
-        <v>34</v>
-      </c>
-      <c r="E9" t="str">
-        <v>44</v>
-      </c>
-      <c r="F9" t="str">
-        <v>54</v>
-      </c>
-      <c r="G9" t="str">
-        <v>64</v>
-      </c>
-      <c r="H9" t="str">
-        <v>74</v>
-      </c>
-      <c r="I9" t="str">
-        <v>84</v>
-      </c>
-      <c r="J9" t="str">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>5</v>
-      </c>
-      <c r="B10" t="str">
-        <v>15</v>
-      </c>
-      <c r="C10" t="str">
-        <v>25</v>
-      </c>
-      <c r="D10" t="str">
-        <v>35</v>
-      </c>
-      <c r="E10" t="str">
-        <v>45</v>
-      </c>
-      <c r="F10" t="str">
-        <v>55</v>
-      </c>
-      <c r="G10" t="str">
-        <v>65</v>
-      </c>
-      <c r="H10" t="str">
-        <v>75</v>
-      </c>
-      <c r="I10" t="str">
-        <v>85</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="B14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6</v>
-      </c>
-      <c r="B11" t="str">
-        <v>16</v>
-      </c>
-      <c r="C11" t="str">
-        <v>26</v>
-      </c>
-      <c r="D11" t="str">
-        <v>36</v>
-      </c>
-      <c r="E11" t="str">
-        <v>46</v>
-      </c>
-      <c r="F11" t="str">
-        <v>56</v>
-      </c>
-      <c r="G11" t="str">
-        <v>66</v>
-      </c>
-      <c r="H11" t="str">
-        <v>76</v>
-      </c>
-      <c r="I11" t="str">
-        <v>86</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="C14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>7</v>
-      </c>
-      <c r="B12" t="str">
-        <v>17</v>
-      </c>
-      <c r="C12" t="str">
-        <v>27</v>
-      </c>
-      <c r="D12" t="str">
-        <v>37</v>
-      </c>
-      <c r="E12" t="str">
-        <v>47</v>
-      </c>
-      <c r="F12" t="str">
-        <v>57</v>
-      </c>
-      <c r="G12" t="str">
-        <v>67</v>
-      </c>
-      <c r="H12" t="str">
-        <v>77</v>
-      </c>
-      <c r="I12" t="str">
-        <v>87</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="D14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>8</v>
-      </c>
-      <c r="B13" t="str">
-        <v>18</v>
-      </c>
-      <c r="C13" t="str">
-        <v>28</v>
-      </c>
-      <c r="D13" t="str">
-        <v>38</v>
-      </c>
-      <c r="E13" t="str">
-        <v>48</v>
-      </c>
-      <c r="F13" t="str">
-        <v>58</v>
-      </c>
-      <c r="G13" t="str">
-        <v>68</v>
-      </c>
-      <c r="H13" t="str">
-        <v>78</v>
-      </c>
-      <c r="I13" t="str">
-        <v>88</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="E14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>9</v>
-      </c>
-      <c r="B14" t="str">
-        <v>19</v>
-      </c>
-      <c r="C14" t="str">
-        <v>29</v>
-      </c>
-      <c r="D14" t="str">
-        <v>39</v>
-      </c>
-      <c r="E14" t="str">
-        <v>49</v>
-      </c>
-      <c r="F14" t="str">
-        <v>59</v>
-      </c>
-      <c r="G14" t="str">
-        <v>69</v>
-      </c>
-      <c r="H14" t="str">
-        <v>79</v>
-      </c>
-      <c r="I14" t="str">
-        <v>89</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="F14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>10</v>
-      </c>
-      <c r="B15" t="str">
-        <v>20</v>
-      </c>
-      <c r="C15" t="str">
-        <v>30</v>
-      </c>
-      <c r="D15" t="str">
-        <v>40</v>
-      </c>
-      <c r="E15" t="str">
-        <v>50</v>
-      </c>
-      <c r="F15" t="str">
-        <v>60</v>
-      </c>
-      <c r="G15" t="str">
-        <v>70</v>
-      </c>
-      <c r="H15" t="str">
-        <v>80</v>
-      </c>
-      <c r="I15" t="str">
-        <v>90</v>
-      </c>
-      <c r="J15" t="str">
+      <c r="G14" t="s">
         <v>100</v>
       </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
+    <ignoredError sqref="A1:J15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>